--- a/data/GP/30034001/None/5_bc_param/Indata_GP_75_72_samples.xlsx
+++ b/data/GP/30034001/None/5_bc_param/Indata_GP_75_72_samples.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.331838293078686</v>
+        <v>4.76301590552997</v>
       </c>
       <c r="C2">
-        <v>0.9765564709467571</v>
+        <v>0.9510052207336429</v>
       </c>
       <c r="D2">
-        <v>2.535397452524244</v>
+        <v>2.141524655102911</v>
       </c>
       <c r="E2">
-        <v>0.04022350449536533</v>
+        <v>0.02973385158745463</v>
       </c>
       <c r="F2">
-        <v>1.253136183069021</v>
+        <v>1.061124393784235</v>
       </c>
       <c r="G2">
-        <v>1145823.782075088</v>
+        <v>1826501.481056714</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.827011398586994</v>
+        <v>3.460107197993548</v>
       </c>
       <c r="C3">
-        <v>1.244705489851858</v>
+        <v>1.086500445319722</v>
       </c>
       <c r="D3">
-        <v>1.279881250473782</v>
+        <v>1.630564043731085</v>
       </c>
       <c r="E3">
-        <v>0.04294635586851579</v>
+        <v>0.05654448153241207</v>
       </c>
       <c r="F3">
-        <v>1.154227763492878</v>
+        <v>0.9310359964910169</v>
       </c>
       <c r="G3">
-        <v>1037731.64714769</v>
+        <v>1367508.863781766</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.275727684089172</v>
+        <v>1.951011166562945</v>
       </c>
       <c r="C4">
-        <v>1.018961319367025</v>
+        <v>1.182646663207159</v>
       </c>
       <c r="D4">
-        <v>2.11413525923999</v>
+        <v>1.783272002133396</v>
       </c>
       <c r="E4">
-        <v>0.05216881487525973</v>
+        <v>0.03838472809285796</v>
       </c>
       <c r="F4">
-        <v>0.8607174174779513</v>
+        <v>1.051903598601744</v>
       </c>
       <c r="G4">
-        <v>1410983.847797533</v>
+        <v>1233143.679693644</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.70972942012687</v>
+        <v>4.782634254271137</v>
       </c>
       <c r="C5">
-        <v>1.023189498089015</v>
+        <v>1.243583656858136</v>
       </c>
       <c r="D5">
-        <v>2.036282007529978</v>
+        <v>2.057427467558989</v>
       </c>
       <c r="E5">
-        <v>0.03783759565308173</v>
+        <v>0.05711611195008424</v>
       </c>
       <c r="F5">
-        <v>1.115776853052896</v>
+        <v>0.9126269415927235</v>
       </c>
       <c r="G5">
-        <v>1543660.386946256</v>
+        <v>2093141.499540418</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.794960529047343</v>
+        <v>3.644451822786768</v>
       </c>
       <c r="C6">
-        <v>1.127214986637358</v>
+        <v>1.009247001053395</v>
       </c>
       <c r="D6">
-        <v>1.403631704197889</v>
+        <v>1.754728308398099</v>
       </c>
       <c r="E6">
-        <v>0.03251684254235239</v>
+        <v>0.05444168886775501</v>
       </c>
       <c r="F6">
-        <v>1.106519370529321</v>
+        <v>1.286366049103434</v>
       </c>
       <c r="G6">
-        <v>1104889.515096275</v>
+        <v>1168656.998240778</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.681893695430311</v>
+        <v>2.056802510951852</v>
       </c>
       <c r="C7">
-        <v>0.9368369609856402</v>
+        <v>1.01736541920537</v>
       </c>
       <c r="D7">
-        <v>2.798958914702811</v>
+        <v>2.938776910925789</v>
       </c>
       <c r="E7">
-        <v>0.04877942769369068</v>
+        <v>0.04706418712974763</v>
       </c>
       <c r="F7">
-        <v>1.030004468255558</v>
+        <v>1.26924129071955</v>
       </c>
       <c r="G7">
-        <v>1228421.223611774</v>
+        <v>1108351.676928778</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.501122539802334</v>
+        <v>3.648816041707547</v>
       </c>
       <c r="C8">
-        <v>1.059145187698372</v>
+        <v>1.091175412000534</v>
       </c>
       <c r="D8">
-        <v>2.890550106896668</v>
+        <v>1.938951608958456</v>
       </c>
       <c r="E8">
-        <v>0.03365118666658647</v>
+        <v>0.03057327334571459</v>
       </c>
       <c r="F8">
-        <v>1.294994663483764</v>
+        <v>1.185093786247011</v>
       </c>
       <c r="G8">
-        <v>1703051.890268283</v>
+        <v>1679070.752156594</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.072596050392767</v>
+        <v>4.598807169295407</v>
       </c>
       <c r="C9">
-        <v>1.156532868044925</v>
+        <v>1.086021260321197</v>
       </c>
       <c r="D9">
-        <v>2.348132429006894</v>
+        <v>1.519925604268891</v>
       </c>
       <c r="E9">
-        <v>0.03030577290770825</v>
+        <v>0.03594158142293088</v>
       </c>
       <c r="F9">
-        <v>1.448888300276908</v>
+        <v>1.125268084972255</v>
       </c>
       <c r="G9">
-        <v>1902649.282717327</v>
+        <v>1797945.282645631</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.103638903262916</v>
+        <v>3.827655694930026</v>
       </c>
       <c r="C10">
-        <v>1.248521389137839</v>
+        <v>1.237714971310265</v>
       </c>
       <c r="D10">
-        <v>2.375368407028035</v>
+        <v>1.3487642631352</v>
       </c>
       <c r="E10">
-        <v>0.04053097041205059</v>
+        <v>0.03083178714639521</v>
       </c>
       <c r="F10">
-        <v>1.259744285767423</v>
+        <v>1.038985723102213</v>
       </c>
       <c r="G10">
-        <v>1657473.79664902</v>
+        <v>1875084.535774345</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.594041369591228</v>
+        <v>4.654565461371527</v>
       </c>
       <c r="C11">
-        <v>0.9299712276966502</v>
+        <v>0.9859409631298299</v>
       </c>
       <c r="D11">
-        <v>2.72321618093631</v>
+        <v>1.030132618371681</v>
       </c>
       <c r="E11">
-        <v>0.04451247531378475</v>
+        <v>0.05097577522053365</v>
       </c>
       <c r="F11">
-        <v>0.8525046155131468</v>
+        <v>1.281716438482124</v>
       </c>
       <c r="G11">
-        <v>1305542.014358204</v>
+        <v>1296515.854426614</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.613344769097409</v>
+        <v>2.249153924448255</v>
       </c>
       <c r="C12">
-        <v>0.9819340726293904</v>
+        <v>1.204432617064465</v>
       </c>
       <c r="D12">
-        <v>2.771541995906329</v>
+        <v>1.642134153917982</v>
       </c>
       <c r="E12">
-        <v>0.04678370601450396</v>
+        <v>0.05240295470505375</v>
       </c>
       <c r="F12">
-        <v>1.270229485946166</v>
+        <v>0.9011131027201916</v>
       </c>
       <c r="G12">
-        <v>1420484.075139191</v>
+        <v>1228624.051870192</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.764704346725745</v>
+        <v>3.036150424128193</v>
       </c>
       <c r="C13">
-        <v>1.214291242112809</v>
+        <v>1.252272609492749</v>
       </c>
       <c r="D13">
-        <v>2.288901889484036</v>
+        <v>2.342246357154574</v>
       </c>
       <c r="E13">
-        <v>0.04723130478128509</v>
+        <v>0.05414679105400227</v>
       </c>
       <c r="F13">
-        <v>1.378014967879965</v>
+        <v>0.8226717315687277</v>
       </c>
       <c r="G13">
-        <v>1621126.973733902</v>
+        <v>1718043.631158056</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.234045549889184</v>
+        <v>2.483483451101258</v>
       </c>
       <c r="C14">
-        <v>0.9855969627841326</v>
+        <v>1.220898671449969</v>
       </c>
       <c r="D14">
-        <v>2.025020336567542</v>
+        <v>1.148698123752781</v>
       </c>
       <c r="E14">
-        <v>0.0368823259335756</v>
+        <v>0.04450161325869357</v>
       </c>
       <c r="F14">
-        <v>1.459896048018948</v>
+        <v>1.214762690597801</v>
       </c>
       <c r="G14">
-        <v>1246813.045998445</v>
+        <v>1124175.229466355</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.984039548919728</v>
+        <v>4.434282901678622</v>
       </c>
       <c r="C15">
-        <v>1.236579242254141</v>
+        <v>1.111121492380352</v>
       </c>
       <c r="D15">
-        <v>2.67673657206162</v>
+        <v>2.032442322211722</v>
       </c>
       <c r="E15">
-        <v>0.03608759215633049</v>
+        <v>0.03335095837274792</v>
       </c>
       <c r="F15">
-        <v>0.913569763095549</v>
+        <v>0.9694569543394479</v>
       </c>
       <c r="G15">
-        <v>2235250.86494585</v>
+        <v>2004456.533162627</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.890585415647008</v>
+        <v>4.305680753026336</v>
       </c>
       <c r="C16">
-        <v>1.107652212291297</v>
+        <v>1.16788433787338</v>
       </c>
       <c r="D16">
-        <v>1.917638893165784</v>
+        <v>1.74153177059531</v>
       </c>
       <c r="E16">
-        <v>0.05704778712644925</v>
+        <v>0.05041412521340589</v>
       </c>
       <c r="F16">
-        <v>1.430317819763146</v>
+        <v>1.493855981692319</v>
       </c>
       <c r="G16">
-        <v>1266676.980148551</v>
+        <v>1480838.08917677</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.691557817264072</v>
+        <v>2.141840331306834</v>
       </c>
       <c r="C17">
-        <v>1.186826542561035</v>
+        <v>1.044938936215604</v>
       </c>
       <c r="D17">
-        <v>1.135378344293562</v>
+        <v>1.419660459871088</v>
       </c>
       <c r="E17">
-        <v>0.04073411870733023</v>
+        <v>0.0376381422004198</v>
       </c>
       <c r="F17">
-        <v>1.279050818999834</v>
+        <v>1.098931640585573</v>
       </c>
       <c r="G17">
-        <v>896469.2957949765</v>
+        <v>1057532.616606985</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.151320115979876</v>
+        <v>4.392729679005226</v>
       </c>
       <c r="C18">
-        <v>1.251639755619554</v>
+        <v>1.209597241783435</v>
       </c>
       <c r="D18">
-        <v>1.808598404959012</v>
+        <v>1.457893376358281</v>
       </c>
       <c r="E18">
-        <v>0.03562231233403088</v>
+        <v>0.04387859880720704</v>
       </c>
       <c r="F18">
-        <v>1.077289353277801</v>
+        <v>0.8423214287023958</v>
       </c>
       <c r="G18">
-        <v>2026777.844162714</v>
+        <v>1969277.154296941</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.91623645477177</v>
+        <v>2.973596434741442</v>
       </c>
       <c r="C19">
-        <v>1.094406511668031</v>
+        <v>1.230498030543822</v>
       </c>
       <c r="D19">
-        <v>2.565795043456327</v>
+        <v>2.56870643916977</v>
       </c>
       <c r="E19">
-        <v>0.03474530715555352</v>
+        <v>0.0478953387517657</v>
       </c>
       <c r="F19">
-        <v>1.482878618856743</v>
+        <v>1.47029316224847</v>
       </c>
       <c r="G19">
-        <v>1436120.46776433</v>
+        <v>1405675.679020111</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.461024893090859</v>
+        <v>3.762653270800127</v>
       </c>
       <c r="C20">
-        <v>1.038614676808553</v>
+        <v>1.033448418689391</v>
       </c>
       <c r="D20">
-        <v>1.882598083335038</v>
+        <v>2.855250980173525</v>
       </c>
       <c r="E20">
-        <v>0.04479370835824652</v>
+        <v>0.03943771998322194</v>
       </c>
       <c r="F20">
-        <v>1.125245333636272</v>
+        <v>1.33633829923067</v>
       </c>
       <c r="G20">
-        <v>1125516.229216379</v>
+        <v>1623419.31505689</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.428436804859013</v>
+        <v>2.376963007246822</v>
       </c>
       <c r="C21">
-        <v>1.058493723141836</v>
+        <v>0.9543063323465524</v>
       </c>
       <c r="D21">
-        <v>2.489552497084622</v>
+        <v>2.520372717843527</v>
       </c>
       <c r="E21">
-        <v>0.04535596957863944</v>
+        <v>0.0300250828435393</v>
       </c>
       <c r="F21">
-        <v>1.474153791393204</v>
+        <v>0.8754686754630105</v>
       </c>
       <c r="G21">
-        <v>1612794.047172529</v>
+        <v>1370489.93162909</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.54038791302035</v>
+        <v>3.205302720319963</v>
       </c>
       <c r="C22">
-        <v>1.164969054973344</v>
+        <v>1.195546617214488</v>
       </c>
       <c r="D22">
-        <v>1.787841320589485</v>
+        <v>1.885646223504811</v>
       </c>
       <c r="E22">
-        <v>0.04942259630051328</v>
+        <v>0.04499526848486058</v>
       </c>
       <c r="F22">
-        <v>0.9638628530918603</v>
+        <v>1.35136895470207</v>
       </c>
       <c r="G22">
-        <v>1584482.361327567</v>
+        <v>1390227.407747239</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.250789429850926</v>
+        <v>2.023054717149035</v>
       </c>
       <c r="C23">
-        <v>1.141803615995858</v>
+        <v>0.9381193032824913</v>
       </c>
       <c r="D23">
-        <v>1.676033718862368</v>
+        <v>2.78879389577494</v>
       </c>
       <c r="E23">
-        <v>0.04981062392264683</v>
+        <v>0.04815835965611456</v>
       </c>
       <c r="F23">
-        <v>1.196838829350953</v>
+        <v>1.369824472274275</v>
       </c>
       <c r="G23">
-        <v>1592228.450865573</v>
+        <v>934882.6530684275</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.95611777614719</v>
+        <v>2.96851525230215</v>
       </c>
       <c r="C24">
-        <v>0.9292650842910759</v>
+        <v>1.140821055363623</v>
       </c>
       <c r="D24">
-        <v>1.178960214772006</v>
+        <v>1.314990679116719</v>
       </c>
       <c r="E24">
-        <v>0.0477406245149852</v>
+        <v>0.04733175584518418</v>
       </c>
       <c r="F24">
-        <v>1.245994794367951</v>
+        <v>1.258553316241491</v>
       </c>
       <c r="G24">
-        <v>704024.1535863212</v>
+        <v>1155660.295318587</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.797559581738738</v>
+        <v>3.349275038958045</v>
       </c>
       <c r="C25">
-        <v>1.182175554020245</v>
+        <v>1.053081525572716</v>
       </c>
       <c r="D25">
-        <v>1.160123130613987</v>
+        <v>2.638670903748829</v>
       </c>
       <c r="E25">
-        <v>0.05608994077894915</v>
+        <v>0.03289242101987166</v>
       </c>
       <c r="F25">
-        <v>1.491925222337825</v>
+        <v>1.206073315724001</v>
       </c>
       <c r="G25">
-        <v>1423849.820885199</v>
+        <v>1644497.214293052</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.019585296335419</v>
+        <v>4.07377840337365</v>
       </c>
       <c r="C26">
-        <v>1.070364112128019</v>
+        <v>1.169061441303289</v>
       </c>
       <c r="D26">
-        <v>1.994589756727076</v>
+        <v>2.951480344922763</v>
       </c>
       <c r="E26">
-        <v>0.03174467256501261</v>
+        <v>0.04862309206827488</v>
       </c>
       <c r="F26">
-        <v>1.043375076373773</v>
+        <v>1.229013198344371</v>
       </c>
       <c r="G26">
-        <v>1256229.815312041</v>
+        <v>1865708.37627224</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.881964049356214</v>
+        <v>3.990868509363872</v>
       </c>
       <c r="C27">
-        <v>1.032822615672235</v>
+        <v>1.198922177852063</v>
       </c>
       <c r="D27">
-        <v>2.42920699793478</v>
+        <v>1.848637352796944</v>
       </c>
       <c r="E27">
-        <v>0.03722876728561322</v>
+        <v>0.03244450641568675</v>
       </c>
       <c r="F27">
-        <v>1.036883509248989</v>
+        <v>0.8907971405056835</v>
       </c>
       <c r="G27">
-        <v>1202006.25051309</v>
+        <v>2026469.465712337</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.682037089705554</v>
+        <v>4.481404034171383</v>
       </c>
       <c r="C28">
-        <v>0.9736366565179699</v>
+        <v>1.117383929780506</v>
       </c>
       <c r="D28">
-        <v>2.811298505175265</v>
+        <v>2.176950174920341</v>
       </c>
       <c r="E28">
-        <v>0.03823234008464434</v>
+        <v>0.05493968585741105</v>
       </c>
       <c r="F28">
-        <v>1.058329379112765</v>
+        <v>0.8296725542234741</v>
       </c>
       <c r="G28">
-        <v>1882385.546347723</v>
+        <v>1898581.980903365</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.900622276760652</v>
+        <v>3.101253714643296</v>
       </c>
       <c r="C29">
-        <v>1.231875290324268</v>
+        <v>1.000238925409677</v>
       </c>
       <c r="D29">
-        <v>2.237210247660638</v>
+        <v>1.299790842362514</v>
       </c>
       <c r="E29">
-        <v>0.02906151798711813</v>
+        <v>0.05787274640666652</v>
       </c>
       <c r="F29">
-        <v>1.352502892916896</v>
+        <v>1.148030915235485</v>
       </c>
       <c r="G29">
-        <v>1386207.968305348</v>
+        <v>979100.9165786644</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.495612744193883</v>
+        <v>2.414138372884743</v>
       </c>
       <c r="C30">
-        <v>1.19062390163304</v>
+        <v>1.054525773148935</v>
       </c>
       <c r="D30">
-        <v>1.24937794457855</v>
+        <v>1.211078939975897</v>
       </c>
       <c r="E30">
-        <v>0.03389078667862198</v>
+        <v>0.03577136104999974</v>
       </c>
       <c r="F30">
-        <v>0.8830278529690595</v>
+        <v>0.9944682298769607</v>
       </c>
       <c r="G30">
-        <v>2013592.968128531</v>
+        <v>1158181.628727082</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.087798212348923</v>
+        <v>1.811942974336704</v>
       </c>
       <c r="C31">
-        <v>1.134516033471042</v>
+        <v>1.061097896135474</v>
       </c>
       <c r="D31">
-        <v>2.845133355453821</v>
+        <v>2.688384616757759</v>
       </c>
       <c r="E31">
-        <v>0.03889741015566382</v>
+        <v>0.02931291027582785</v>
       </c>
       <c r="F31">
-        <v>0.9300738327346827</v>
+        <v>1.104754318416932</v>
       </c>
       <c r="G31">
-        <v>1496210.483960817</v>
+        <v>1337829.752425388</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.55427921825638</v>
+        <v>2.921179260666766</v>
       </c>
       <c r="C32">
-        <v>1.077235294454565</v>
+        <v>1.12057796677513</v>
       </c>
       <c r="D32">
-        <v>1.528768639382775</v>
+        <v>1.408319156191792</v>
       </c>
       <c r="E32">
-        <v>0.04249489778160086</v>
+        <v>0.04173297441700449</v>
       </c>
       <c r="F32">
-        <v>1.134191625579169</v>
+        <v>1.384441773472125</v>
       </c>
       <c r="G32">
-        <v>1145016.61061812</v>
+        <v>1160440.061122764</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.152722967944015</v>
+        <v>2.590407158497555</v>
       </c>
       <c r="C33">
-        <v>0.9597488127340656</v>
+        <v>1.039267029252133</v>
       </c>
       <c r="D33">
-        <v>1.002816309261557</v>
+        <v>1.950757518620724</v>
       </c>
       <c r="E33">
-        <v>0.03436249357225126</v>
+        <v>0.04310548366110288</v>
       </c>
       <c r="F33">
-        <v>0.987160956895664</v>
+        <v>1.006111303830301</v>
       </c>
       <c r="G33">
-        <v>972833.8427237319</v>
+        <v>1246036.280737051</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.221272233485914</v>
+        <v>1.679506807239417</v>
       </c>
       <c r="C34">
-        <v>1.048613307981468</v>
+        <v>1.131144049932081</v>
       </c>
       <c r="D34">
-        <v>2.663923253911557</v>
+        <v>2.728718787051188</v>
       </c>
       <c r="E34">
-        <v>0.03656681384038803</v>
+        <v>0.04531075167173441</v>
       </c>
       <c r="F34">
-        <v>0.9498143440036609</v>
+        <v>1.029672449528945</v>
       </c>
       <c r="G34">
-        <v>1937125.276458329</v>
+        <v>1230713.883798497</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.925588174820422</v>
+        <v>3.390960554097602</v>
       </c>
       <c r="C35">
-        <v>0.9987568143688296</v>
+        <v>0.9431615883115333</v>
       </c>
       <c r="D35">
-        <v>2.104320212039894</v>
+        <v>2.33269036312639</v>
       </c>
       <c r="E35">
-        <v>0.04168156759961802</v>
+        <v>0.03950158662585295</v>
       </c>
       <c r="F35">
-        <v>1.066007632857959</v>
+        <v>0.9830153594892219</v>
       </c>
       <c r="G35">
-        <v>1551676.776506045</v>
+        <v>1434979.529724636</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.031840233182402</v>
+        <v>4.345399644566214</v>
       </c>
       <c r="C36">
-        <v>1.225857630326211</v>
+        <v>1.227833049842072</v>
       </c>
       <c r="D36">
-        <v>2.722122593845772</v>
+        <v>2.497981725173896</v>
       </c>
       <c r="E36">
-        <v>0.0501398276175414</v>
+        <v>0.03532758543629137</v>
       </c>
       <c r="F36">
-        <v>0.8233896952089005</v>
+        <v>1.136959824851071</v>
       </c>
       <c r="G36">
-        <v>2129531.406794889</v>
+        <v>2193562.336235243</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.826613807529809</v>
+        <v>4.206083660812698</v>
       </c>
       <c r="C37">
-        <v>1.203695523078491</v>
+        <v>0.9831531044779626</v>
       </c>
       <c r="D37">
-        <v>2.603623133420129</v>
+        <v>1.122628585858971</v>
       </c>
       <c r="E37">
-        <v>0.04128725406874531</v>
+        <v>0.04963817935096221</v>
       </c>
       <c r="F37">
-        <v>1.167772583372806</v>
+        <v>1.477227355782383</v>
       </c>
       <c r="G37">
-        <v>1908539.197640755</v>
+        <v>1127725.054326646</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.110791340638562</v>
+        <v>3.889834168618004</v>
       </c>
       <c r="C38">
-        <v>1.151265286369977</v>
+        <v>1.102006410310021</v>
       </c>
       <c r="D38">
-        <v>1.203268186152456</v>
+        <v>2.82218091112276</v>
       </c>
       <c r="E38">
-        <v>0.03002501380933258</v>
+        <v>0.04428857525314828</v>
       </c>
       <c r="F38">
-        <v>0.8772179223320438</v>
+        <v>0.8162432763894739</v>
       </c>
       <c r="G38">
-        <v>1574214.821779873</v>
+        <v>1957779.684262697</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.582743046008163</v>
+        <v>3.118012093314806</v>
       </c>
       <c r="C39">
-        <v>1.06377950758835</v>
+        <v>0.9611261734902974</v>
       </c>
       <c r="D39">
-        <v>1.77120226417093</v>
+        <v>2.448438771116979</v>
       </c>
       <c r="E39">
-        <v>0.04379441083861667</v>
+        <v>0.04290409835398736</v>
       </c>
       <c r="F39">
-        <v>1.18508308472022</v>
+        <v>1.402014446226</v>
       </c>
       <c r="G39">
-        <v>1678227.121440482</v>
+        <v>1204531.732492935</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.795135411865679</v>
+        <v>4.547220835734164</v>
       </c>
       <c r="C40">
-        <v>1.082800688807281</v>
+        <v>1.248284882067455</v>
       </c>
       <c r="D40">
-        <v>1.651892104142418</v>
+        <v>2.240799148870609</v>
       </c>
       <c r="E40">
-        <v>0.04392676878877536</v>
+        <v>0.05325065089886231</v>
       </c>
       <c r="F40">
-        <v>0.8442803057605565</v>
+        <v>1.085392128886423</v>
       </c>
       <c r="G40">
-        <v>1635963.951475803</v>
+        <v>1995581.652281671</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.636658398976436</v>
+        <v>3.816106575472935</v>
       </c>
       <c r="C41">
-        <v>0.948211496330669</v>
+        <v>0.9690281878946938</v>
       </c>
       <c r="D41">
-        <v>2.950982765819509</v>
+        <v>1.585798931860022</v>
       </c>
       <c r="E41">
-        <v>0.0296325624580403</v>
+        <v>0.03435566761527269</v>
       </c>
       <c r="F41">
-        <v>0.9953473084407432</v>
+        <v>1.25266897760747</v>
       </c>
       <c r="G41">
-        <v>1230703.140151294</v>
+        <v>1394726.382680893</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.576124836871571</v>
+        <v>2.334356157391023</v>
       </c>
       <c r="C42">
-        <v>1.197474611004141</v>
+        <v>1.003764207771354</v>
       </c>
       <c r="D42">
-        <v>1.840804438303577</v>
+        <v>2.533409268089795</v>
       </c>
       <c r="E42">
-        <v>0.05092749341262653</v>
+        <v>0.05580861298499314</v>
       </c>
       <c r="F42">
-        <v>1.14924428571276</v>
+        <v>0.8566232375971843</v>
       </c>
       <c r="G42">
-        <v>1518427.77712788</v>
+        <v>1204356.486690909</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.662246999664617</v>
+        <v>2.668773294072945</v>
       </c>
       <c r="C43">
-        <v>1.209330876665798</v>
+        <v>1.040773709692972</v>
       </c>
       <c r="D43">
-        <v>1.612481166664272</v>
+        <v>2.651977606107855</v>
       </c>
       <c r="E43">
-        <v>0.05056668938172854</v>
+        <v>0.03130880347416757</v>
       </c>
       <c r="F43">
-        <v>1.356474137229857</v>
+        <v>1.065445125576655</v>
       </c>
       <c r="G43">
-        <v>1389877.964215741</v>
+        <v>1517979.467117391</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.327505944753458</v>
+        <v>2.878532441073473</v>
       </c>
       <c r="C44">
-        <v>1.17644522973429</v>
+        <v>0.9630313473440705</v>
       </c>
       <c r="D44">
-        <v>1.560879124523742</v>
+        <v>2.874460738808044</v>
       </c>
       <c r="E44">
-        <v>0.05400320928116289</v>
+        <v>0.03787561388865877</v>
       </c>
       <c r="F44">
-        <v>1.323376178971132</v>
+        <v>1.404328630010636</v>
       </c>
       <c r="G44">
-        <v>1216577.364400258</v>
+        <v>1294988.951784098</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.402601118633124</v>
+        <v>3.72864310647723</v>
       </c>
       <c r="C45">
-        <v>1.101294443573831</v>
+        <v>1.0776920422101</v>
       </c>
       <c r="D45">
-        <v>1.257474499594049</v>
+        <v>1.19238870113544</v>
       </c>
       <c r="E45">
-        <v>0.04829101291544537</v>
+        <v>0.0463359088472614</v>
       </c>
       <c r="F45">
-        <v>0.8089707505879092</v>
+        <v>1.022734634045446</v>
       </c>
       <c r="G45">
-        <v>1447296.347041825</v>
+        <v>1396830.637018371</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.17256904994224</v>
+        <v>4.007740407351466</v>
       </c>
       <c r="C46">
-        <v>1.130277436136034</v>
+        <v>0.9266441453553907</v>
       </c>
       <c r="D46">
-        <v>1.893519572527941</v>
+        <v>1.72126102612979</v>
       </c>
       <c r="E46">
-        <v>0.05772637011177357</v>
+        <v>0.04208733057242682</v>
       </c>
       <c r="F46">
-        <v>0.9736875257808904</v>
+        <v>1.41829780719877</v>
       </c>
       <c r="G46">
-        <v>1085949.730969534</v>
+        <v>1242853.81057139</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.319934441565108</v>
+        <v>2.096746505596435</v>
       </c>
       <c r="C47">
-        <v>1.219314101938465</v>
+        <v>1.023163024178855</v>
       </c>
       <c r="D47">
-        <v>2.194858002584305</v>
+        <v>2.438977350387963</v>
       </c>
       <c r="E47">
-        <v>0.05539383638562537</v>
+        <v>0.0403653394769091</v>
       </c>
       <c r="F47">
-        <v>1.32509702720921</v>
+        <v>1.242764024011</v>
       </c>
       <c r="G47">
-        <v>1676735.651433783</v>
+        <v>1126069.495358502</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.214255635550243</v>
+        <v>4.164664360060186</v>
       </c>
       <c r="C48">
-        <v>0.9460309383487975</v>
+        <v>1.136588984652469</v>
       </c>
       <c r="D48">
-        <v>2.875190528646439</v>
+        <v>2.607219278333581</v>
       </c>
       <c r="E48">
-        <v>0.04192623111407238</v>
+        <v>0.03625234045348475</v>
       </c>
       <c r="F48">
-        <v>1.095201910785226</v>
+        <v>0.9451952777710231</v>
       </c>
       <c r="G48">
-        <v>1186186.685892927</v>
+        <v>2075908.018033714</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.501643076458099</v>
+        <v>3.267269475950263</v>
       </c>
       <c r="C49">
-        <v>1.040345452754604</v>
+        <v>1.027245109640947</v>
       </c>
       <c r="D49">
-        <v>2.388970876510293</v>
+        <v>1.552238439630826</v>
       </c>
       <c r="E49">
-        <v>0.04330805272196746</v>
+        <v>0.04148029936021719</v>
       </c>
       <c r="F49">
-        <v>1.398373849905346</v>
+        <v>1.074079344933191</v>
       </c>
       <c r="G49">
-        <v>1131586.895367731</v>
+        <v>1313781.629340053</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.362774056569846</v>
+        <v>3.49324502675881</v>
       </c>
       <c r="C50">
-        <v>1.099340108220195</v>
+        <v>0.9983318136191472</v>
       </c>
       <c r="D50">
-        <v>2.980984512199645</v>
+        <v>2.197087301863084</v>
       </c>
       <c r="E50">
-        <v>0.04613061861157717</v>
+        <v>0.03194180475939306</v>
       </c>
       <c r="F50">
-        <v>1.417824806476425</v>
+        <v>1.156168035887448</v>
       </c>
       <c r="G50">
-        <v>1228317.396586485</v>
+        <v>1539217.888589299</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.839895154958582</v>
+        <v>1.715580888514207</v>
       </c>
       <c r="C51">
-        <v>0.9939492427635038</v>
+        <v>1.156638621291626</v>
       </c>
       <c r="D51">
-        <v>2.940809982871329</v>
+        <v>1.377307993708633</v>
       </c>
       <c r="E51">
-        <v>0.04856602589120021</v>
+        <v>0.04249960769475622</v>
       </c>
       <c r="F51">
-        <v>1.298584663601217</v>
+        <v>0.8800068474499849</v>
       </c>
       <c r="G51">
-        <v>1241142.090725802</v>
+        <v>1089887.403136588</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.32432924810415</v>
+        <v>2.622523545244536</v>
       </c>
       <c r="C52">
-        <v>0.9977717527344158</v>
+        <v>1.09827643473865</v>
       </c>
       <c r="D52">
-        <v>1.729322823580579</v>
+        <v>1.824631716860648</v>
       </c>
       <c r="E52">
-        <v>0.03508982820974571</v>
+        <v>0.05724307028126617</v>
       </c>
       <c r="F52">
-        <v>1.237202759119456</v>
+        <v>1.375282947679043</v>
       </c>
       <c r="G52">
-        <v>1590092.276549464</v>
+        <v>940333.5505099697</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.831165720579691</v>
+        <v>2.794531462322582</v>
       </c>
       <c r="C53">
-        <v>1.172634231542586</v>
+        <v>0.9306507293142288</v>
       </c>
       <c r="D53">
-        <v>1.954142786720605</v>
+        <v>1.260218800199798</v>
       </c>
       <c r="E53">
-        <v>0.05497129239445869</v>
+        <v>0.03495397507392201</v>
       </c>
       <c r="F53">
-        <v>1.088536298213721</v>
+        <v>0.9873256987890647</v>
       </c>
       <c r="G53">
-        <v>1282970.1814839</v>
+        <v>1127890.352977859</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.001920247522884</v>
+        <v>3.315062188361143</v>
       </c>
       <c r="C54">
-        <v>1.194861954228515</v>
+        <v>0.9440924286294047</v>
       </c>
       <c r="D54">
-        <v>1.031508547753402</v>
+        <v>1.224007906685319</v>
       </c>
       <c r="E54">
-        <v>0.03925137442669879</v>
+        <v>0.05606284240328666</v>
       </c>
       <c r="F54">
-        <v>1.221532791278851</v>
+        <v>1.172038165172915</v>
       </c>
       <c r="G54">
-        <v>1292820.320992492</v>
+        <v>964922.8396306488</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.040053741912404</v>
+        <v>1.65960246097891</v>
       </c>
       <c r="C55">
-        <v>1.090632468030449</v>
+        <v>1.181453111403362</v>
       </c>
       <c r="D55">
-        <v>2.509345934306845</v>
+        <v>2.716949179695724</v>
       </c>
       <c r="E55">
-        <v>0.0456000374681033</v>
+        <v>0.05141373323532433</v>
       </c>
       <c r="F55">
-        <v>1.366989050808384</v>
+        <v>1.327436185383439</v>
       </c>
       <c r="G55">
-        <v>1334948.886667545</v>
+        <v>1039363.22640488</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.818566179857879</v>
+        <v>2.454036623032193</v>
       </c>
       <c r="C56">
-        <v>0.954503711694062</v>
+        <v>1.211603063187304</v>
       </c>
       <c r="D56">
-        <v>1.097720000393931</v>
+        <v>1.027226007025294</v>
       </c>
       <c r="E56">
-        <v>0.03098829323602709</v>
+        <v>0.05277208624119682</v>
       </c>
       <c r="F56">
-        <v>0.8136287793517436</v>
+        <v>1.310702652104284</v>
       </c>
       <c r="G56">
-        <v>1716661.661829085</v>
+        <v>922353.3503239353</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.596916097318054</v>
+        <v>4.837812928918882</v>
       </c>
       <c r="C57">
-        <v>1.11419512318621</v>
+        <v>0.9736548543494943</v>
       </c>
       <c r="D57">
-        <v>2.464939008230568</v>
+        <v>2.402407297167991</v>
       </c>
       <c r="E57">
-        <v>0.03191331657389987</v>
+        <v>0.05529059961971088</v>
       </c>
       <c r="F57">
-        <v>0.8953904100153316</v>
+        <v>1.357132004659501</v>
       </c>
       <c r="G57">
-        <v>2201095.532862091</v>
+        <v>1489265.603708073</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.286505583775294</v>
+        <v>3.9268459592251</v>
       </c>
       <c r="C58">
-        <v>1.006365929559034</v>
+        <v>1.106540610174311</v>
       </c>
       <c r="D58">
-        <v>1.417577556642478</v>
+        <v>2.998079203692046</v>
       </c>
       <c r="E58">
-        <v>0.03850037732086772</v>
+        <v>0.03351792039576112</v>
       </c>
       <c r="F58">
-        <v>0.9052617074196367</v>
+        <v>0.9206974147761613</v>
       </c>
       <c r="G58">
-        <v>1120124.678496707</v>
+        <v>2080784.171888854</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.717610285604683</v>
+        <v>4.68484354296947</v>
       </c>
       <c r="C59">
-        <v>1.051350503474271</v>
+        <v>1.21615397408497</v>
       </c>
       <c r="D59">
-        <v>1.706974690778239</v>
+        <v>2.760839414274348</v>
       </c>
       <c r="E59">
-        <v>0.03126850640095716</v>
+        <v>0.03151856689485474</v>
       </c>
       <c r="F59">
-        <v>1.312022986949752</v>
+        <v>1.165065965355448</v>
       </c>
       <c r="G59">
-        <v>1270797.2181614</v>
+        <v>2390550.295771307</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.715089660438758</v>
+        <v>2.180096028358994</v>
       </c>
       <c r="C60">
-        <v>0.9407781662291983</v>
+        <v>1.013093047290222</v>
       </c>
       <c r="D60">
-        <v>1.518089717803135</v>
+        <v>1.975795540389025</v>
       </c>
       <c r="E60">
-        <v>0.05136040059861871</v>
+        <v>0.03383796921804797</v>
       </c>
       <c r="F60">
-        <v>1.407355628325999</v>
+        <v>1.300095598420909</v>
       </c>
       <c r="G60">
-        <v>618899.9366347492</v>
+        <v>1111378.892156302</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.622057758597152</v>
+        <v>4.519403744229137</v>
       </c>
       <c r="C61">
-        <v>1.161764210290169</v>
+        <v>1.173926580715158</v>
       </c>
       <c r="D61">
-        <v>1.332033400384184</v>
+        <v>2.097646304327601</v>
       </c>
       <c r="E61">
-        <v>0.05587397522296038</v>
+        <v>0.04572004338815136</v>
       </c>
       <c r="F61">
-        <v>1.214993630479976</v>
+        <v>1.189659324270398</v>
       </c>
       <c r="G61">
-        <v>1000852.599603795</v>
+        <v>1877239.509377383</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.753310693056765</v>
+        <v>3.153484987736584</v>
       </c>
       <c r="C62">
-        <v>1.121838178189</v>
+        <v>0.9791464743841157</v>
       </c>
       <c r="D62">
-        <v>1.444901536060224</v>
+        <v>2.131875505287506</v>
       </c>
       <c r="E62">
-        <v>0.05737831376797742</v>
+        <v>0.05220591291723965</v>
       </c>
       <c r="F62">
-        <v>1.387940528353833</v>
+        <v>1.443782315614587</v>
       </c>
       <c r="G62">
-        <v>1438880.678567186</v>
+        <v>1039239.963175679</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.759345660060192</v>
+        <v>2.55414952208894</v>
       </c>
       <c r="C63">
-        <v>1.014207382552402</v>
+        <v>1.145843661758495</v>
       </c>
       <c r="D63">
-        <v>2.327538730325969</v>
+        <v>2.270557973125829</v>
       </c>
       <c r="E63">
-        <v>0.03962937941173086</v>
+        <v>0.04082305413198245</v>
       </c>
       <c r="F63">
-        <v>0.8325099665874671</v>
+        <v>0.808015140140379</v>
       </c>
       <c r="G63">
-        <v>1442942.743545579</v>
+        <v>1558435.987343869</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.06599608479998</v>
+        <v>1.759731165693147</v>
       </c>
       <c r="C64">
-        <v>1.030574974804261</v>
+        <v>1.074081151722098</v>
       </c>
       <c r="D64">
-        <v>1.592822119704298</v>
+        <v>1.559296730594947</v>
       </c>
       <c r="E64">
-        <v>0.05446348960894244</v>
+        <v>0.05183854357993253</v>
       </c>
       <c r="F64">
-        <v>1.440437675955661</v>
+        <v>1.424948186916536</v>
       </c>
       <c r="G64">
-        <v>719295.0278434954</v>
+        <v>711000.4135834697</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.412104898477985</v>
+        <v>1.88201260263317</v>
       </c>
       <c r="C65">
-        <v>1.074704959083523</v>
+        <v>1.125533535548167</v>
       </c>
       <c r="D65">
-        <v>2.146705163206945</v>
+        <v>2.019995734855035</v>
       </c>
       <c r="E65">
-        <v>0.04657273712775539</v>
+        <v>0.03876482846191819</v>
       </c>
       <c r="F65">
-        <v>0.942069634945078</v>
+        <v>1.31946881198305</v>
       </c>
       <c r="G65">
-        <v>1275316.564485202</v>
+        <v>1083962.021729707</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.409780206187179</v>
+        <v>1.912308110053392</v>
       </c>
       <c r="C66">
-        <v>1.010842995411943</v>
+        <v>1.064935152929769</v>
       </c>
       <c r="D66">
-        <v>2.268288264436158</v>
+        <v>1.685678516962003</v>
       </c>
       <c r="E66">
-        <v>0.05675086745490118</v>
+        <v>0.03674781977575486</v>
       </c>
       <c r="F66">
-        <v>1.34004219518953</v>
+        <v>0.9524107373031443</v>
       </c>
       <c r="G66">
-        <v>1401439.636226729</v>
+        <v>1139740.340998215</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.134383992945782</v>
+        <v>4.249609704171887</v>
       </c>
       <c r="C67">
-        <v>1.1122520166087</v>
+        <v>1.146731320523191</v>
       </c>
       <c r="D67">
-        <v>1.356040366813918</v>
+        <v>2.890335891005445</v>
       </c>
       <c r="E67">
-        <v>0.03315542991943387</v>
+        <v>0.04917601613681486</v>
       </c>
       <c r="F67">
-        <v>0.922403403987538</v>
+        <v>0.8586512872148463</v>
       </c>
       <c r="G67">
-        <v>1792149.872454769</v>
+        <v>2083509.691768406</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.360556388312729</v>
+        <v>2.276924776757137</v>
       </c>
       <c r="C68">
-        <v>1.23864218561975</v>
+        <v>0.9921784446463439</v>
       </c>
       <c r="D68">
-        <v>2.072735634481965</v>
+        <v>1.098261413116024</v>
       </c>
       <c r="E68">
-        <v>0.0528650133937752</v>
+        <v>0.04900223205533862</v>
       </c>
       <c r="F68">
-        <v>0.9786220246832587</v>
+        <v>1.225263827581643</v>
       </c>
       <c r="G68">
-        <v>1643861.139510348</v>
+        <v>804436.5348827136</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.537573774670401</v>
+        <v>2.78792884264579</v>
       </c>
       <c r="C69">
-        <v>1.148980748502081</v>
+        <v>1.191033474770862</v>
       </c>
       <c r="D69">
-        <v>1.373456368218654</v>
+        <v>2.378822495887934</v>
       </c>
       <c r="E69">
-        <v>0.0525010341212462</v>
+        <v>0.05362735992261863</v>
       </c>
       <c r="F69">
-        <v>1.021862228408173</v>
+        <v>1.487040875557511</v>
       </c>
       <c r="G69">
-        <v>1689068.929872772</v>
+        <v>1170013.453087451</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.639457487896689</v>
+        <v>3.513229356497591</v>
       </c>
       <c r="C70">
-        <v>0.9685469707610653</v>
+        <v>1.152120615710146</v>
       </c>
       <c r="D70">
-        <v>2.623369241069798</v>
+        <v>1.891144250056461</v>
       </c>
       <c r="E70">
-        <v>0.05162095107871299</v>
+        <v>0.04009675141718644</v>
       </c>
       <c r="F70">
-        <v>1.175612506727044</v>
+        <v>1.112974369121196</v>
       </c>
       <c r="G70">
-        <v>1614934.673731637</v>
+        <v>1618360.302192495</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.159907354964397</v>
+        <v>2.721285885441747</v>
       </c>
       <c r="C71">
-        <v>1.136947066234971</v>
+        <v>1.161200008205376</v>
       </c>
       <c r="D71">
-        <v>1.484763012805729</v>
+        <v>1.49838181831627</v>
       </c>
       <c r="E71">
-        <v>0.05363097995070599</v>
+        <v>0.03740725749150223</v>
       </c>
       <c r="F71">
-        <v>1.198914898476414</v>
+        <v>1.432552934216019</v>
       </c>
       <c r="G71">
-        <v>1188422.761719466</v>
+        <v>1212891.92259242</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.423829050446344</v>
+        <v>3.578466608143947</v>
       </c>
       <c r="C72">
-        <v>1.222427087199425</v>
+        <v>1.068847057648127</v>
       </c>
       <c r="D72">
-        <v>2.184292600225277</v>
+        <v>1.078066015169345</v>
       </c>
       <c r="E72">
-        <v>0.03287947432978139</v>
+        <v>0.04615898019350612</v>
       </c>
       <c r="F72">
-        <v>1.00892945517134</v>
+        <v>1.455366868926151</v>
       </c>
       <c r="G72">
-        <v>1909925.833237732</v>
+        <v>1116670.25322935</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.943131247968211</v>
+        <v>4.111198935014212</v>
       </c>
       <c r="C73">
-        <v>0.9642238193192004</v>
+        <v>1.241434105587151</v>
       </c>
       <c r="D73">
-        <v>1.066283262881325</v>
+        <v>2.292163946462708</v>
       </c>
       <c r="E73">
-        <v>0.05328318002448384</v>
+        <v>0.05007056358140894</v>
       </c>
       <c r="F73">
-        <v>1.464898709400249</v>
+        <v>0.9628388416954076</v>
       </c>
       <c r="G73">
-        <v>775275.9209274711</v>
+        <v>1983481.908886919</v>
       </c>
     </row>
   </sheetData>
